--- a/biology/Zoologie/Eumetazoa/Eumetazoa.xlsx
+++ b/biology/Zoologie/Eumetazoa/Eumetazoa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Eumétazoaires (Eumetazoa) ou métazoaires supérieurs ou vrais métazoaires (du grec ancien eu- « bien, vrai ») sont des organismes vivants pluricellulaires hétérotrophes. Ce sous-règne comprend tous les principaux groupes d'animaux, à l’exception des éponges. Ils auraient émergé il y a 940 millions d'années[1]. Si ce sous-règne est largement accepté, des hésitations quant à la position respective des éponges et des cténaires pourraient le remettre en cause[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Eumétazoaires (Eumetazoa) ou métazoaires supérieurs ou vrais métazoaires (du grec ancien eu- « bien, vrai ») sont des organismes vivants pluricellulaires hétérotrophes. Ce sous-règne comprend tous les principaux groupes d'animaux, à l’exception des éponges. Ils auraient émergé il y a 940 millions d'années. Si ce sous-règne est largement accepté, des hésitations quant à la position respective des éponges et des cténaires pourraient le remettre en cause.
 Les Eumétazoaires regroupent plus d'un million d'espèces décrites, réparties dans tous les milieux, y compris les plus extrêmes. Leurs vrais tissus se forment lorsque de multiples cellules se spécialisent, ce qui permet une plus grande efficacité énergétique.
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Caractéristiques propres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Ils ne possèdent jamais de choanocytes, à la différence des éponges qui en ont.
 Des synapses chimiques permettent l’existence d’un « véritable système nerveux ».
@@ -548,7 +562,9 @@
           <t>Paléontologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les plus anciennes traces fossiles d'eumétazoaires datent de 700 Ma (dans le Précambrien). Ce sont des animaux fouisseurs. Les plus anciens fossiles indiscutables sont ceux de la faune d'Ediacara en Australie, datant de 630 Ma.[réf. souhaitée]
 </t>
@@ -579,9 +595,11 @@
           <t>Phylogénie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cladogramme selon une étude réalisée par Laumer en 2018[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cladogramme selon une étude réalisée par Laumer en 2018 :
 </t>
         </is>
       </c>
@@ -610,7 +628,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Les eumétazoaires regroupent les embranchements suivants :
 non classé « Radiata » (paraphylétique)
